--- a/gpu outputs/plots/agreement_multiple_all.xlsx
+++ b/gpu outputs/plots/agreement_multiple_all.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,30 +375,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>jaccard</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>kripp_alpha_binary</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>kripp_alpha_unweighted</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>kripp_alpha_unweighted_ci</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>kripp_alpha_masi</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>kripp_alpha_masi_ci</t>
         </is>
@@ -407,7 +412,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -417,36 +422,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.51</v>
+        <v>400</v>
       </c>
       <c r="E2">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.37</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(0.336,0.404)</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>0.37</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>(0.336,0.404)</t>
+        <v>0.26</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(0.136,0.259)</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>(0.136,0.259)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -456,36 +464,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.49</v>
+        <v>400</v>
       </c>
       <c r="E3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="F3">
         <v>0.35</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(0.316,0.384)</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>0.35</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(0.316,0.384)</t>
+      <c r="G3">
+        <v>0.06</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(0.001,0.112)</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>0.06</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>(0.001,0.112)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -495,36 +506,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.73</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.55</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(0.515,0.58)</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(0.525,0.589)</t>
+        <v>0.37</v>
+      </c>
+      <c r="G4">
+        <v>0.23</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(0.162,0.291)</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>0.23</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>(0.162,0.291)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,153 +548,165 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.43</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="F5">
-        <v>0.22</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(0.188,0.244)</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>0.27</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>(0.241,0.297)</t>
+        <v>0.37</v>
+      </c>
+      <c r="G5">
+        <v>0.19</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(0.129,0.243)</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>0.19</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>(0.137,0.252)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.47</v>
+        <v>399</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="F6">
-        <v>0.27</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>(0.239,0.3)</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>0.32</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>(0.286,0.345)</t>
+        <v>0.31</v>
+      </c>
+      <c r="G6">
+        <v>0.17</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(0.107,0.228)</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>0.17</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>(0.107,0.228)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.51</v>
+        <v>399</v>
       </c>
       <c r="E7">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>(0.268,0.329)</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>0.35</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>(0.316,0.375)</t>
+        <v>0.32</v>
+      </c>
+      <c r="G7">
+        <v>0.06</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(0.008,0.118)</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>0.06</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>(0.008,0.118)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.48</v>
+        <v>399</v>
       </c>
       <c r="E8">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="F8">
-        <v>0.29</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>(0.262,0.323)</t>
-        </is>
-      </c>
-      <c r="H8">
         <v>0.33</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>(0.304,0.365)</t>
+      <c r="G8">
+        <v>0.27</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(0.2,0.331)</t>
+        </is>
+      </c>
+      <c r="I8">
+        <v>0.27</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>(0.2,0.331)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -690,1901 +716,2048 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.49</v>
+        <v>399</v>
       </c>
       <c r="E9">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>0.35</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>(0.313,0.382)</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>0.35</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>(0.313,0.382)</t>
+        <v>0.33</v>
+      </c>
+      <c r="G9">
+        <v>0.22</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(0.164,0.281)</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>0.23</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>(0.173,0.291)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.72</v>
+        <v>396</v>
       </c>
       <c r="E10">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="F10">
-        <v>0.54</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>(0.51,0.575)</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>0.55</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>(0.517,0.582)</t>
+        <v>0.26</v>
+      </c>
+      <c r="G10">
+        <v>0.19</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(0.127,0.244)</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>0.19</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>(0.127,0.244)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.43</v>
+        <v>396</v>
       </c>
       <c r="E11">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="F11">
-        <v>0.22</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>(0.189,0.245)</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>0.27</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>(0.241,0.297)</t>
+        <v>0.31</v>
+      </c>
+      <c r="G11">
+        <v>0.09</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(0.038,0.149)</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>0.09</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>(0.038,0.149)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D12">
+        <v>396</v>
+      </c>
+      <c r="E12">
         <v>0.47</v>
       </c>
-      <c r="E12">
-        <v>0.39</v>
-      </c>
       <c r="F12">
-        <v>0.26</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>(0.23,0.289)</t>
-        </is>
-      </c>
-      <c r="H12">
         <v>0.31</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>(0.277,0.336)</t>
+      <c r="G12">
+        <v>0.24</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(0.177,0.307)</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>0.24</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(0.177,0.307)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.52</v>
+        <v>396</v>
       </c>
       <c r="E13">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>(0.266,0.326)</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>0.34</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>(0.315,0.374)</t>
+        <v>0.37</v>
+      </c>
+      <c r="G13">
+        <v>0.23</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(0.172,0.287)</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>0.23</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(0.177,0.292)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.49</v>
+        <v>400</v>
       </c>
       <c r="E14">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="F14">
-        <v>0.29</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>(0.263,0.324)</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>0.34</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>(0.305,0.366)</t>
+        <v>0.33</v>
+      </c>
+      <c r="G14">
+        <v>0.23</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(0.17,0.286)</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>0.23</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(0.171,0.287)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.7</v>
+        <v>400</v>
       </c>
       <c r="E15">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
       <c r="F15">
-        <v>0.52</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>(0.49,0.556)</t>
-        </is>
-      </c>
-      <c r="H15">
-        <v>0.53</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>(0.496,0.561)</t>
+        <v>0.38</v>
+      </c>
+      <c r="G15">
+        <v>0.06</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(0.01,0.118)</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>(0.01,0.118)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <v>0.57</v>
+      </c>
+      <c r="F16">
         <v>0.41</v>
       </c>
-      <c r="E16">
-        <v>0.34</v>
-      </c>
-      <c r="F16">
-        <v>0.21</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>(0.178,0.234)</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>0.26</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>(0.23,0.287)</t>
+      <c r="G16">
+        <v>0.29</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(0.229,0.357)</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>0.3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(0.232,0.361)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.45</v>
+        <v>400</v>
       </c>
       <c r="E17">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="F17">
-        <v>0.24</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>(0.21,0.269)</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>0.28</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>(0.255,0.314)</t>
+        <v>0.43</v>
+      </c>
+      <c r="G17">
+        <v>0.29</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(0.231,0.351)</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>0.3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>(0.243,0.364)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.48</v>
+        <v>400</v>
       </c>
       <c r="E18">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="F18">
-        <v>0.27</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>(0.24,0.3)</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>0.31</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>(0.28,0.34)</t>
+        <v>0.28</v>
+      </c>
+      <c r="G18">
+        <v>0.04</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(-0.013,0.085)</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>0.04</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>(-0.013,0.085)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.46</v>
+        <v>400</v>
       </c>
       <c r="E19">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F19">
-        <v>0.27</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>(0.245,0.305)</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>0.32</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>(0.285,0.346)</t>
+        <v>0.28</v>
+      </c>
+      <c r="G19">
+        <v>0.16</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(0.106,0.222)</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>0.16</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>(0.106,0.222)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.48</v>
+        <v>400</v>
       </c>
       <c r="E20">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="F20">
-        <v>0.27</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>(0.239,0.297)</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>0.36</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>(0.328,0.384)</t>
+        <v>0.46</v>
+      </c>
+      <c r="G20">
+        <v>0.31</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(0.254,0.358)</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>0.32</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>(0.266,0.37)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D21">
+        <v>379</v>
+      </c>
+      <c r="E21">
         <v>0.52</v>
       </c>
-      <c r="E21">
-        <v>0.45</v>
-      </c>
       <c r="F21">
-        <v>0.32</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>(0.289,0.35)</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>0.4</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>(0.372,0.43)</t>
+        <v>0.31</v>
+      </c>
+      <c r="G21">
+        <v>0.18</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(0.125,0.241)</t>
+        </is>
+      </c>
+      <c r="I21">
+        <v>0.19</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>(0.134,0.254)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.5600000000000001</v>
+        <v>381</v>
       </c>
       <c r="E22">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="F22">
-        <v>0.36</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>(0.327,0.389)</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>0.45</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>(0.418,0.476)</t>
+        <v>0.29</v>
+      </c>
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(0.183,0.319)</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>0.26</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>(0.187,0.323)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.53</v>
+        <v>381</v>
       </c>
       <c r="E23">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="F23">
-        <v>0.35</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>(0.316,0.378)</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>0.42</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>(0.395,0.454)</t>
+        <v>0.37</v>
+      </c>
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(0.232,0.361)</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>0.3</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>(0.236,0.366)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>381</v>
       </c>
       <c r="E24">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="F24">
-        <v>0.41</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>(0.381,0.445)</t>
-        </is>
-      </c>
-      <c r="H24">
-        <v>0.5</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>(0.472,0.53)</t>
+        <v>0.32</v>
+      </c>
+      <c r="G24">
+        <v>0.27</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(0.21,0.335)</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>0.28</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>(0.218,0.344)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.58</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="F25">
-        <v>0.38</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>(0.352,0.414)</t>
-        </is>
-      </c>
-      <c r="H25">
-        <v>0.48</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>(0.449,0.505)</t>
+        <v>0.49</v>
+      </c>
+      <c r="G25">
+        <v>0.19</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(0.124,0.252)</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>0.19</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>(0.124,0.252)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D26">
+        <v>400</v>
+      </c>
+      <c r="E26">
         <v>0.59</v>
       </c>
-      <c r="E26">
-        <v>0.48</v>
-      </c>
       <c r="F26">
-        <v>0.41</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>(0.375,0.438)</t>
-        </is>
-      </c>
-      <c r="H26">
-        <v>0.49</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>(0.461,0.519)</t>
+        <v>0.63</v>
+      </c>
+      <c r="G26">
+        <v>0.29</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(0.232,0.341)</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>0.28</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>(0.228,0.338)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.64</v>
+        <v>165</v>
       </c>
       <c r="E27">
+        <v>0.68</v>
+      </c>
+      <c r="F27">
         <v>0.53</v>
       </c>
-      <c r="F27">
-        <v>0.48</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>(0.443,0.507)</t>
-        </is>
-      </c>
-      <c r="H27">
-        <v>0.55</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>(0.523,0.58)</t>
+      <c r="G27">
+        <v>0.44</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(0.349,0.526)</t>
+        </is>
+      </c>
+      <c r="I27">
+        <v>0.46</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>(0.369,0.546)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D28">
+        <v>166</v>
+      </c>
+      <c r="E28">
         <v>0.65</v>
       </c>
-      <c r="E28">
-        <v>0.54</v>
-      </c>
       <c r="F28">
-        <v>0.48</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>(0.448,0.513)</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>0.55</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>(0.524,0.583)</t>
+        <v>0.52</v>
+      </c>
+      <c r="G28">
+        <v>0.41</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(0.307,0.507)</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>0.41</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>(0.305,0.507)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>who_cat_clean</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D29">
-        <v>0.6899999999999999</v>
+        <v>166</v>
       </c>
       <c r="E29">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="F29">
-        <v>0.52</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>(0.49,0.553)</t>
-        </is>
-      </c>
-      <c r="H29">
-        <v>0.6</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>(0.575,0.631)</t>
+        <v>0.66</v>
+      </c>
+      <c r="G29">
+        <v>0.59</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(0.499,0.681)</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>0.59</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>(0.499,0.681)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D30">
-        <v>0.67</v>
+        <v>166</v>
       </c>
       <c r="E30">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="F30">
-        <v>0.39</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>(0.345,0.425)</t>
-        </is>
-      </c>
-      <c r="H30">
-        <v>0.39</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>(0.345,0.425)</t>
+        <v>0.61</v>
+      </c>
+      <c r="G30">
+        <v>0.57</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(0.489,0.659)</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>0.59</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>(0.5,0.67)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.68</v>
+        <v>400</v>
       </c>
       <c r="E31">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.4</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>(0.363,0.443)</t>
-        </is>
-      </c>
-      <c r="H31">
-        <v>0.4</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>(0.363,0.443)</t>
+        <v>0.66</v>
+      </c>
+      <c r="G31">
+        <v>0.59</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(0.538,0.65)</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>0.61</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>(0.551,0.661)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.82</v>
+        <v>279</v>
       </c>
       <c r="E32">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F32">
-        <v>0.58</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>(0.542,0.619)</t>
-        </is>
-      </c>
-      <c r="H32">
-        <v>0.59</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>(0.551,0.628)</t>
+        <v>0.43</v>
+      </c>
+      <c r="G32">
+        <v>0.41</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(0.339,0.488)</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>0.45</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>(0.38,0.528)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D33">
+        <v>280</v>
+      </c>
+      <c r="E33">
+        <v>0.83</v>
+      </c>
+      <c r="F33">
+        <v>0.62</v>
+      </c>
+      <c r="G33">
         <v>0.61</v>
       </c>
-      <c r="E33">
-        <v>0.35</v>
-      </c>
-      <c r="F33">
-        <v>0.26</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>(0.23,0.295)</t>
-        </is>
-      </c>
-      <c r="H33">
-        <v>0.3</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>(0.27,0.337)</t>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(0.534,0.69)</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>0.63</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(0.555,0.708)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D34">
-        <v>0.68</v>
+        <v>280</v>
       </c>
       <c r="E34">
-        <v>0.38</v>
+        <v>0.89</v>
       </c>
       <c r="F34">
-        <v>0.4</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>(0.36,0.442)</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>0.41</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>(0.373,0.455)</t>
+        <v>0.72</v>
+      </c>
+      <c r="G34">
+        <v>0.75</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(0.688,0.821)</t>
+        </is>
+      </c>
+      <c r="I34">
+        <v>0.77</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>(0.702,0.831)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D35">
-        <v>0.73</v>
+        <v>280</v>
       </c>
       <c r="E35">
-        <v>0.44</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F35">
-        <v>0.43</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>(0.386,0.467)</t>
-        </is>
-      </c>
-      <c r="H35">
-        <v>0.45</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>(0.409,0.49)</t>
+        <v>0.53</v>
+      </c>
+      <c r="G35">
+        <v>0.61</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(0.537,0.682)</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>0.63</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>(0.565,0.705)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D36">
-        <v>0.67</v>
+        <v>398</v>
       </c>
       <c r="E36">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F36">
-        <v>0.34</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>(0.301,0.372)</t>
-        </is>
-      </c>
-      <c r="H36">
-        <v>0.38</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>(0.34,0.412)</t>
+        <v>0.33</v>
+      </c>
+      <c r="G36">
+        <v>0.24</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(0.187,0.291)</t>
+        </is>
+      </c>
+      <c r="I36">
+        <v>0.27</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>(0.218,0.323)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D37">
-        <v>0.68</v>
+        <v>400</v>
       </c>
       <c r="E37">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="F37">
-        <v>0.4</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>(0.357,0.436)</t>
-        </is>
-      </c>
-      <c r="H37">
-        <v>0.4</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>(0.357,0.436)</t>
+        <v>0.35</v>
+      </c>
+      <c r="G37">
+        <v>0.24</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(0.171,0.299)</t>
+        </is>
+      </c>
+      <c r="I37">
+        <v>0.26</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>(0.196,0.325)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D38">
-        <v>0.82</v>
+        <v>400</v>
       </c>
       <c r="E38">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="F38">
-        <v>0.57</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>(0.533,0.61)</t>
-        </is>
-      </c>
-      <c r="H38">
-        <v>0.58</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>(0.544,0.62)</t>
+        <v>0.49</v>
+      </c>
+      <c r="G38">
+        <v>0.36</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(0.298,0.425)</t>
+        </is>
+      </c>
+      <c r="I38">
+        <v>0.38</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>(0.322,0.448)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D39">
-        <v>0.61</v>
+        <v>400</v>
       </c>
       <c r="E39">
-        <v>0.34</v>
+        <v>0.58</v>
       </c>
       <c r="F39">
-        <v>0.26</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>(0.227,0.292)</t>
-        </is>
-      </c>
-      <c r="H39">
-        <v>0.3</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>(0.264,0.331)</t>
+        <v>0.38</v>
+      </c>
+      <c r="G39">
+        <v>0.32</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(0.267,0.378)</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>0.36</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>(0.303,0.414)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Coder 2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>pixtral</t>
-        </is>
-      </c>
       <c r="D40">
-        <v>0.68</v>
+        <v>997</v>
       </c>
       <c r="E40">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="F40">
-        <v>0.4</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>(0.361,0.441)</t>
-        </is>
-      </c>
-      <c r="H40">
-        <v>0.41</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>(0.373,0.454)</t>
+        <v>0.29</v>
+      </c>
+      <c r="G40">
+        <v>0.21</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(0.17,0.25)</t>
+        </is>
+      </c>
+      <c r="I40">
+        <v>0.21</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>(0.17,0.25)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="D41">
-        <v>0.73</v>
+        <v>980</v>
       </c>
       <c r="E41">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="F41">
-        <v>0.42</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>(0.383,0.464)</t>
-        </is>
-      </c>
-      <c r="H41">
-        <v>0.45</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>(0.407,0.487)</t>
+        <v>0.3</v>
+      </c>
+      <c r="G41">
+        <v>0.19</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(0.156,0.233)</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>0.19</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>(0.156,0.233)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="D42">
-        <v>0.6899999999999999</v>
+        <v>999</v>
       </c>
       <c r="E42">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="F42">
-        <v>0.35</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>(0.318,0.391)</t>
-        </is>
-      </c>
-      <c r="H42">
-        <v>0.39</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>(0.358,0.431)</t>
+        <v>0.59</v>
+      </c>
+      <c r="G42">
+        <v>0.46</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(0.419,0.496)</t>
+        </is>
+      </c>
+      <c r="I42">
+        <v>0.46</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>(0.423,0.5)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D43">
-        <v>0.83</v>
+        <v>923</v>
       </c>
       <c r="E43">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="F43">
-        <v>0.58</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>(0.547,0.623)</t>
-        </is>
-      </c>
-      <c r="H43">
-        <v>0.59</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>(0.554,0.629)</t>
+        <v>0.31</v>
+      </c>
+      <c r="G43">
+        <v>0.21</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(0.178,0.251)</t>
+        </is>
+      </c>
+      <c r="I43">
+        <v>0.24</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>(0.199,0.275)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D44">
-        <v>0.61</v>
+        <v>923</v>
       </c>
       <c r="E44">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="F44">
-        <v>0.27</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>(0.237,0.303)</t>
-        </is>
-      </c>
-      <c r="H44">
-        <v>0.31</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>(0.273,0.341)</t>
+        <v>0.3</v>
+      </c>
+      <c r="G44">
+        <v>0.28</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(0.235,0.325)</t>
+        </is>
+      </c>
+      <c r="I44">
+        <v>0.29</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>(0.243,0.334)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D45">
-        <v>0.68</v>
+        <v>923</v>
       </c>
       <c r="E45">
+        <v>0.64</v>
+      </c>
+      <c r="F45">
         <v>0.36</v>
       </c>
-      <c r="F45">
-        <v>0.4</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>(0.355,0.436)</t>
-        </is>
-      </c>
-      <c r="H45">
-        <v>0.4</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>(0.364,0.445)</t>
+      <c r="G45">
+        <v>0.34</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(0.294,0.383)</t>
+        </is>
+      </c>
+      <c r="I45">
+        <v>0.35</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>(0.304,0.393)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D46">
-        <v>0.71</v>
+        <v>923</v>
       </c>
       <c r="E46">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="F46">
-        <v>0.4</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>(0.355,0.436)</t>
-        </is>
-      </c>
-      <c r="H46">
-        <v>0.42</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>(0.376,0.457)</t>
+        <v>0.32</v>
+      </c>
+      <c r="G46">
+        <v>0.29</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(0.253,0.335)</t>
+        </is>
+      </c>
+      <c r="I46">
+        <v>0.31</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>(0.265,0.347)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Coder 3</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>qwen</t>
-        </is>
-      </c>
       <c r="D47">
-        <v>0.67</v>
+        <v>980</v>
       </c>
       <c r="E47">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="F47">
-        <v>0.33</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>(0.298,0.37)</t>
-        </is>
-      </c>
-      <c r="H47">
-        <v>0.37</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>(0.335,0.407)</t>
+        <v>0.29</v>
+      </c>
+      <c r="G47">
+        <v>0.22</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(0.178,0.257)</t>
+        </is>
+      </c>
+      <c r="I47">
+        <v>0.22</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>(0.178,0.257)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Consensus</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>gemma</t>
-        </is>
-      </c>
       <c r="D48">
-        <v>0.66</v>
+        <v>998</v>
       </c>
       <c r="E48">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="F48">
-        <v>0.31</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>(0.275,0.343)</t>
-        </is>
-      </c>
-      <c r="H48">
-        <v>0.37</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>(0.34,0.409)</t>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.48</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(0.44,0.516)</t>
+        </is>
+      </c>
+      <c r="I48">
+        <v>0.48</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>(0.444,0.52)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.75</v>
+        <v>933</v>
       </c>
       <c r="E49">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>(0.454,0.537)</t>
-        </is>
-      </c>
-      <c r="H49">
-        <v>0.53</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>(0.489,0.57)</t>
+        <v>0.3</v>
+      </c>
+      <c r="G49">
+        <v>0.2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(0.165,0.236)</t>
+        </is>
+      </c>
+      <c r="I49">
+        <v>0.22</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>(0.188,0.262)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D50">
-        <v>0.8</v>
+        <v>935</v>
       </c>
       <c r="E50">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="F50">
-        <v>0.53</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>(0.493,0.575)</t>
-        </is>
-      </c>
-      <c r="H50">
-        <v>0.58</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>(0.542,0.621)</t>
+        <v>0.33</v>
+      </c>
+      <c r="G50">
+        <v>0.28</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(0.238,0.327)</t>
+        </is>
+      </c>
+      <c r="I50">
+        <v>0.29</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>(0.248,0.337)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D51">
-        <v>0.74</v>
+        <v>935</v>
       </c>
       <c r="E51">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="F51">
-        <v>0.43</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>(0.388,0.464)</t>
-        </is>
-      </c>
-      <c r="H51">
-        <v>0.49</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>(0.455,0.529)</t>
+        <v>0.36</v>
+      </c>
+      <c r="G51">
+        <v>0.33</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(0.286,0.373)</t>
+        </is>
+      </c>
+      <c r="I51">
+        <v>0.34</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>(0.298,0.385)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D52">
-        <v>0.6899999999999999</v>
+        <v>935</v>
       </c>
       <c r="E52">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="F52">
-        <v>0.39</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>(0.348,0.425)</t>
-        </is>
-      </c>
-      <c r="H52">
-        <v>0.46</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>(0.418,0.494)</t>
+        <v>0.34</v>
+      </c>
+      <c r="G52">
+        <v>0.3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(0.258,0.338)</t>
+        </is>
+      </c>
+      <c r="I52">
+        <v>0.31</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>(0.274,0.355)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="D53">
-        <v>0.72</v>
+        <v>981</v>
       </c>
       <c r="E53">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="F53">
-        <v>0.41</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>(0.365,0.446)</t>
-        </is>
-      </c>
-      <c r="H53">
-        <v>0.47</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>(0.432,0.511)</t>
+        <v>0.58</v>
+      </c>
+      <c r="G53">
+        <v>0.45</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(0.414,0.49)</t>
+        </is>
+      </c>
+      <c r="I53">
+        <v>0.46</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>(0.418,0.493)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D54">
-        <v>0.73</v>
+        <v>910</v>
       </c>
       <c r="E54">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="F54">
-        <v>0.46</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>(0.422,0.502)</t>
-        </is>
-      </c>
-      <c r="H54">
-        <v>0.51</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>(0.474,0.552)</t>
+        <v>0.26</v>
+      </c>
+      <c r="G54">
+        <v>0.14</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(0.106,0.172)</t>
+        </is>
+      </c>
+      <c r="I54">
+        <v>0.16</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>(0.124,0.193)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D55">
-        <v>0.78</v>
+        <v>912</v>
       </c>
       <c r="E55">
         <v>0.57</v>
       </c>
       <c r="F55">
-        <v>0.54</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>(0.498,0.586)</t>
-        </is>
-      </c>
-      <c r="H55">
-        <v>0.58</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>(0.539,0.624)</t>
+        <v>0.3</v>
+      </c>
+      <c r="G55">
+        <v>0.22</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(0.18,0.265)</t>
+        </is>
+      </c>
+      <c r="I55">
+        <v>0.23</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>(0.187,0.273)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D56">
-        <v>0.77</v>
+        <v>912</v>
       </c>
       <c r="E56">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F56">
-        <v>0.51</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>(0.475,0.555)</t>
-        </is>
-      </c>
-      <c r="H56">
-        <v>0.58</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>(0.544,0.619)</t>
+        <v>0.34</v>
+      </c>
+      <c r="G56">
+        <v>0.27</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(0.222,0.308)</t>
+        </is>
+      </c>
+      <c r="I56">
+        <v>0.27</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>(0.231,0.317)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>prem_offer</t>
+          <t>marketing_str</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D57">
-        <v>0.82</v>
+        <v>912</v>
       </c>
       <c r="E57">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="F57">
-        <v>0.59</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>(0.548,0.631)</t>
-        </is>
-      </c>
-      <c r="H57">
-        <v>0.65</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>(0.608,0.684)</t>
+        <v>0.29</v>
+      </c>
+      <c r="G57">
+        <v>0.21</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(0.171,0.248)</t>
+        </is>
+      </c>
+      <c r="I57">
+        <v>0.23</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>(0.187,0.265)</t>
         </is>
       </c>
     </row>
@@ -2596,34 +2769,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="D58">
-        <v>0.51</v>
+        <v>998</v>
       </c>
       <c r="E58">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F58">
+        <v>0.35</v>
+      </c>
+      <c r="G58">
         <v>0.21</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>(0.171,0.252)</t>
-        </is>
-      </c>
-      <c r="H58">
-        <v>0.21</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>(0.171,0.252)</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(0.177,0.244)</t>
+        </is>
+      </c>
+      <c r="I58">
+        <v>0.25</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>(0.21,0.28)</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2811,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D59">
-        <v>0.48</v>
+        <v>1000</v>
       </c>
       <c r="E59">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
       <c r="F59">
-        <v>0.19</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>(0.156,0.233)</t>
-        </is>
-      </c>
-      <c r="H59">
-        <v>0.19</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>(0.156,0.233)</t>
+        <v>0.36</v>
+      </c>
+      <c r="G59">
+        <v>0.33</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(0.287,0.372)</t>
+        </is>
+      </c>
+      <c r="I59">
+        <v>0.35</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>(0.307,0.393)</t>
         </is>
       </c>
     </row>
@@ -2674,34 +2853,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D60">
-        <v>0.72</v>
+        <v>1000</v>
       </c>
       <c r="E60">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F60">
-        <v>0.46</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>(0.422,0.5)</t>
-        </is>
-      </c>
-      <c r="H60">
-        <v>0.46</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>(0.426,0.504)</t>
+        <v>0.42</v>
+      </c>
+      <c r="G60">
+        <v>0.38</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(0.339,0.422)</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>0.4</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>(0.362,0.446)</t>
         </is>
       </c>
     </row>
@@ -2713,34 +2895,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D61">
-        <v>0.53</v>
+        <v>1000</v>
       </c>
       <c r="E61">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="F61">
-        <v>0.21</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>(0.175,0.245)</t>
-        </is>
-      </c>
-      <c r="H61">
-        <v>0.23</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>(0.196,0.269)</t>
+        <v>0.39</v>
+      </c>
+      <c r="G61">
+        <v>0.31</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(0.27,0.345)</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>0.34</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>(0.299,0.375)</t>
         </is>
       </c>
     </row>
@@ -2752,34 +2937,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="D62">
-        <v>0.62</v>
+        <v>998</v>
       </c>
       <c r="E62">
-        <v>0.29</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F62">
-        <v>0.27</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>(0.231,0.318)</t>
-        </is>
-      </c>
-      <c r="H62">
-        <v>0.28</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>(0.239,0.327)</t>
+        <v>0.41</v>
+      </c>
+      <c r="G62">
+        <v>0.37</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(0.327,0.412)</t>
+        </is>
+      </c>
+      <c r="I62">
+        <v>0.42</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>(0.375,0.461)</t>
         </is>
       </c>
     </row>
@@ -2791,34 +2979,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D63">
-        <v>0.63</v>
+        <v>998</v>
       </c>
       <c r="E63">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F63">
-        <v>0.33</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>(0.288,0.373)</t>
-        </is>
-      </c>
-      <c r="H63">
-        <v>0.34</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>(0.297,0.382)</t>
+        <v>0.43</v>
+      </c>
+      <c r="G63">
+        <v>0.39</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(0.346,0.425)</t>
+        </is>
+      </c>
+      <c r="I63">
+        <v>0.44</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>(0.402,0.481)</t>
         </is>
       </c>
     </row>
@@ -2830,34 +3021,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Coder 1</t>
+          <t>Gemma</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D64">
-        <v>0.59</v>
+        <v>998</v>
       </c>
       <c r="E64">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="F64">
-        <v>0.29</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>(0.247,0.326)</t>
-        </is>
-      </c>
-      <c r="H64">
-        <v>0.3</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>(0.259,0.338)</t>
+        <v>0.53</v>
+      </c>
+      <c r="G64">
+        <v>0.49</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(0.452,0.529)</t>
+        </is>
+      </c>
+      <c r="I64">
+        <v>0.55</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>(0.514,0.587)</t>
         </is>
       </c>
     </row>
@@ -2869,34 +3063,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="D65">
-        <v>0.49</v>
+        <v>1000</v>
       </c>
       <c r="E65">
-        <v>0.29</v>
+        <v>0.82</v>
       </c>
       <c r="F65">
-        <v>0.22</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>(0.178,0.257)</t>
-        </is>
-      </c>
-      <c r="H65">
-        <v>0.22</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>(0.178,0.257)</t>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.59</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(0.547,0.639)</t>
+        </is>
+      </c>
+      <c r="I65">
+        <v>0.62</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>(0.573,0.662)</t>
         </is>
       </c>
     </row>
@@ -2908,34 +3105,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Pixtral</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D66">
-        <v>0.74</v>
+        <v>1000</v>
       </c>
       <c r="E66">
+        <v>0.78</v>
+      </c>
+      <c r="F66">
+        <v>0.51</v>
+      </c>
+      <c r="G66">
+        <v>0.53</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(0.482,0.572)</t>
+        </is>
+      </c>
+      <c r="I66">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F66">
-        <v>0.48</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>(0.443,0.521)</t>
-        </is>
-      </c>
-      <c r="H66">
-        <v>0.49</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>(0.447,0.524)</t>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>(0.517,0.605)</t>
         </is>
       </c>
     </row>
@@ -2947,736 +3147,5581 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>GPT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="D67">
-        <v>0.51</v>
+        <v>1000</v>
       </c>
       <c r="E67">
-        <v>0.3</v>
+        <v>0.82</v>
       </c>
       <c r="F67">
-        <v>0.19</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>(0.157,0.225)</t>
-        </is>
-      </c>
-      <c r="H67">
-        <v>0.22</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>(0.18,0.251)</t>
+        <v>0.67</v>
+      </c>
+      <c r="G67">
+        <v>0.63</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(0.588,0.667)</t>
+        </is>
+      </c>
+      <c r="I67">
+        <v>0.66</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>(0.624,0.699)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D68">
-        <v>0.62</v>
+        <v>400</v>
       </c>
       <c r="E68">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="F68">
-        <v>0.27</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>(0.226,0.313)</t>
-        </is>
-      </c>
-      <c r="H68">
+        <v>0.35</v>
+      </c>
+      <c r="G68">
         <v>0.28</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>(0.236,0.323)</t>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(0.224,0.343)</t>
+        </is>
+      </c>
+      <c r="I68">
+        <v>0.28</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>(0.224,0.343)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D69">
-        <v>0.62</v>
+        <v>400</v>
       </c>
       <c r="E69">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="F69">
+        <v>0.5</v>
+      </c>
+      <c r="G69">
         <v>0.31</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>(0.271,0.356)</t>
-        </is>
-      </c>
-      <c r="H69">
-        <v>0.32</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>(0.282,0.367)</t>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(0.251,0.377)</t>
+        </is>
+      </c>
+      <c r="I69">
+        <v>0.31</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>(0.251,0.377)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Coder 2</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D70">
-        <v>0.59</v>
+        <v>400</v>
       </c>
       <c r="E70">
-        <v>0.34</v>
+        <v>0.77</v>
       </c>
       <c r="F70">
-        <v>0.29</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>(0.251,0.329)</t>
-        </is>
-      </c>
-      <c r="H70">
-        <v>0.31</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>(0.267,0.346)</t>
+        <v>0.38</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(0.429,0.569)</t>
+        </is>
+      </c>
+      <c r="I70">
+        <v>0.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>(0.429,0.569)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D71">
-        <v>0.71</v>
+        <v>400</v>
       </c>
       <c r="E71">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="F71">
+        <v>0.42</v>
+      </c>
+      <c r="G71">
         <v>0.45</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>(0.414,0.49)</t>
-        </is>
-      </c>
-      <c r="H71">
-        <v>0.46</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>(0.418,0.493)</t>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(0.379,0.512)</t>
+        </is>
+      </c>
+      <c r="I71">
+        <v>0.45</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>(0.381,0.514)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D72">
-        <v>0.46</v>
+        <v>399</v>
       </c>
       <c r="E72">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="F72">
-        <v>0.14</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>(0.108,0.172)</t>
-        </is>
-      </c>
-      <c r="H72">
-        <v>0.16</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>(0.125,0.192)</t>
+        <v>0.32</v>
+      </c>
+      <c r="G72">
+        <v>0.28</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(0.224,0.338)</t>
+        </is>
+      </c>
+      <c r="I72">
+        <v>0.28</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>(0.224,0.338)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D73">
-        <v>0.57</v>
+        <v>399</v>
       </c>
       <c r="E73">
+        <v>0.59</v>
+      </c>
+      <c r="F73">
+        <v>0.35</v>
+      </c>
+      <c r="G73">
         <v>0.29</v>
       </c>
-      <c r="F73">
-        <v>0.22</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>(0.177,0.259)</t>
-        </is>
-      </c>
-      <c r="H73">
-        <v>0.22</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>(0.184,0.266)</t>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(0.235,0.35)</t>
+        </is>
+      </c>
+      <c r="I73">
+        <v>0.29</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>(0.235,0.35)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D74">
-        <v>0.57</v>
+        <v>399</v>
       </c>
       <c r="E74">
-        <v>0.34</v>
+        <v>0.73</v>
       </c>
       <c r="F74">
-        <v>0.26</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>(0.222,0.305)</t>
-        </is>
-      </c>
-      <c r="H74">
-        <v>0.27</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>(0.23,0.313)</t>
+        <v>0.3</v>
+      </c>
+      <c r="G74">
+        <v>0.44</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(0.369,0.504)</t>
+        </is>
+      </c>
+      <c r="I74">
+        <v>0.44</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>(0.369,0.504)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Coder 3</t>
+          <t>Coder 2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D75">
-        <v>0.52</v>
+        <v>399</v>
       </c>
       <c r="E75">
-        <v>0.3</v>
+        <v>0.71</v>
       </c>
       <c r="F75">
-        <v>0.21</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>(0.173,0.246)</t>
-        </is>
-      </c>
-      <c r="H75">
-        <v>0.22</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>(0.187,0.261)</t>
+        <v>0.39</v>
+      </c>
+      <c r="G75">
+        <v>0.42</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(0.362,0.486)</t>
+        </is>
+      </c>
+      <c r="I75">
+        <v>0.43</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>(0.368,0.491)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D76">
-        <v>0.5600000000000001</v>
+        <v>396</v>
       </c>
       <c r="E76">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="F76">
-        <v>0.21</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>(0.18,0.248)</t>
-        </is>
-      </c>
-      <c r="H76">
-        <v>0.25</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>(0.214,0.284)</t>
+        <v>0.32</v>
+      </c>
+      <c r="G76">
+        <v>0.3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(0.241,0.354)</t>
+        </is>
+      </c>
+      <c r="I76">
+        <v>0.3</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>(0.241,0.354)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D77">
-        <v>0.68</v>
+        <v>396</v>
       </c>
       <c r="E77">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F77">
-        <v>0.34</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>(0.293,0.38)</t>
-        </is>
-      </c>
-      <c r="H77">
-        <v>0.36</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>(0.313,0.401)</t>
+        <v>0.38</v>
+      </c>
+      <c r="G77">
+        <v>0.28</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(0.224,0.342)</t>
+        </is>
+      </c>
+      <c r="I77">
+        <v>0.28</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>(0.224,0.342)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D78">
-        <v>0.6899999999999999</v>
+        <v>396</v>
       </c>
       <c r="E78">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="F78">
-        <v>0.39</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>(0.344,0.428)</t>
-        </is>
-      </c>
-      <c r="H78">
-        <v>0.41</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>(0.367,0.451)</t>
+        <v>0.33</v>
+      </c>
+      <c r="G78">
+        <v>0.48</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(0.413,0.547)</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>0.48</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>(0.413,0.547)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Consensus</t>
+          <t>Coder 3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D79">
-        <v>0.63</v>
+        <v>396</v>
       </c>
       <c r="E79">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="F79">
-        <v>0.31</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>(0.275,0.35)</t>
-        </is>
-      </c>
-      <c r="H79">
-        <v>0.34</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>(0.304,0.38)</t>
+        <v>0.36</v>
+      </c>
+      <c r="G79">
+        <v>0.44</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(0.374,0.5)</t>
+        </is>
+      </c>
+      <c r="I79">
+        <v>0.45</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>(0.382,0.508)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="D80">
-        <v>0.6899999999999999</v>
+        <v>400</v>
       </c>
       <c r="E80">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="F80">
-        <v>0.37</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>(0.325,0.411)</t>
-        </is>
-      </c>
-      <c r="H80">
-        <v>0.42</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>(0.373,0.459)</t>
+        <v>0.36</v>
+      </c>
+      <c r="G80">
+        <v>0.32</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(0.26,0.375)</t>
+        </is>
+      </c>
+      <c r="I80">
+        <v>0.32</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>(0.267,0.382)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D81">
-        <v>0.6899999999999999</v>
+        <v>400</v>
       </c>
       <c r="E81">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="F81">
-        <v>0.39</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>(0.346,0.426)</t>
-        </is>
-      </c>
-      <c r="H81">
-        <v>0.44</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>(0.402,0.481)</t>
+        <v>0.47</v>
+      </c>
+      <c r="G81">
+        <v>0.3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(0.239,0.358)</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>0.31</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>(0.246,0.364)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>gemma</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D82">
-        <v>0.74</v>
+        <v>400</v>
       </c>
       <c r="E82">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
       <c r="F82">
-        <v>0.49</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>(0.45,0.528)</t>
-        </is>
-      </c>
-      <c r="H82">
-        <v>0.55</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>(0.512,0.586)</t>
+        <v>0.42</v>
+      </c>
+      <c r="G82">
+        <v>0.59</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(0.527,0.66)</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>0.62</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>(0.553,0.682)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Consensus</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Consensus (D)</t>
         </is>
       </c>
       <c r="D83">
-        <v>0.82</v>
+        <v>400</v>
       </c>
       <c r="E83">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F83">
-        <v>0.59</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>(0.547,0.639)</t>
-        </is>
-      </c>
-      <c r="H83">
-        <v>0.62</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>(0.572,0.662)</t>
+        <v>0.46</v>
+      </c>
+      <c r="G83">
+        <v>0.55</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(0.486,0.617)</t>
+        </is>
+      </c>
+      <c r="I83">
+        <v>0.58</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>(0.513,0.641)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pixtral</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 2</t>
         </is>
       </c>
       <c r="D84">
-        <v>0.78</v>
+        <v>400</v>
       </c>
       <c r="E84">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="F84">
-        <v>0.52</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>(0.479,0.57)</t>
-        </is>
-      </c>
-      <c r="H84">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>(0.515,0.603)</t>
+        <v>0.4</v>
+      </c>
+      <c r="G84">
+        <v>0.29</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(0.229,0.347)</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>0.29</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>(0.229,0.347)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>marketing_str</t>
+          <t>prem_offer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>gpt</t>
+          <t>Dietician 1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>qwen</t>
+          <t>Dietician 3</t>
         </is>
       </c>
       <c r="D85">
+        <v>400</v>
+      </c>
+      <c r="E85">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.35</v>
+      </c>
+      <c r="G85">
+        <v>0.36</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(0.296,0.424)</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>0.36</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>(0.296,0.424)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>400</v>
+      </c>
+      <c r="E86">
+        <v>0.79</v>
+      </c>
+      <c r="F86">
+        <v>0.61</v>
+      </c>
+      <c r="G86">
+        <v>0.53</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(0.472,0.586)</t>
+        </is>
+      </c>
+      <c r="I86">
+        <v>0.53</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>(0.475,0.589)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>362</v>
+      </c>
+      <c r="E87">
+        <v>0.62</v>
+      </c>
+      <c r="F87">
+        <v>0.33</v>
+      </c>
+      <c r="G87">
+        <v>0.25</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(0.203,0.3)</t>
+        </is>
+      </c>
+      <c r="I87">
+        <v>0.28</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>(0.227,0.329)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>364</v>
+      </c>
+      <c r="E88">
+        <v>0.67</v>
+      </c>
+      <c r="F88">
+        <v>0.39</v>
+      </c>
+      <c r="G88">
+        <v>0.34</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(0.279,0.406)</t>
+        </is>
+      </c>
+      <c r="I88">
+        <v>0.35</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>(0.289,0.417)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>364</v>
+      </c>
+      <c r="E89">
+        <v>0.74</v>
+      </c>
+      <c r="F89">
+        <v>0.45</v>
+      </c>
+      <c r="G89">
+        <v>0.39</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(0.327,0.454)</t>
+        </is>
+      </c>
+      <c r="I89">
+        <v>0.41</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>(0.342,0.469)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>364</v>
+      </c>
+      <c r="E90">
+        <v>0.7</v>
+      </c>
+      <c r="F90">
+        <v>0.44</v>
+      </c>
+      <c r="G90">
+        <v>0.35</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(0.295,0.413)</t>
+        </is>
+      </c>
+      <c r="I90">
+        <v>0.38</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>(0.317,0.437)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>400</v>
+      </c>
+      <c r="E91">
+        <v>0.64</v>
+      </c>
+      <c r="F91">
+        <v>0.41</v>
+      </c>
+      <c r="G91">
+        <v>0.31</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(0.236,0.376)</t>
+        </is>
+      </c>
+      <c r="I91">
+        <v>0.31</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>(0.236,0.376)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>400</v>
+      </c>
+      <c r="E92">
+        <v>0.74</v>
+      </c>
+      <c r="F92">
+        <v>0.58</v>
+      </c>
+      <c r="G92">
+        <v>0.46</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(0.397,0.521)</t>
+        </is>
+      </c>
+      <c r="I92">
+        <v>0.46</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>(0.399,0.523)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>253</v>
+      </c>
+      <c r="E93">
+        <v>0.73</v>
+      </c>
+      <c r="F93">
+        <v>0.51</v>
+      </c>
+      <c r="G93">
+        <v>0.33</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(0.261,0.399)</t>
+        </is>
+      </c>
+      <c r="I93">
+        <v>0.38</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>(0.305,0.447)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>254</v>
+      </c>
+      <c r="E94">
+        <v>0.83</v>
+      </c>
+      <c r="F94">
+        <v>0.53</v>
+      </c>
+      <c r="G94">
+        <v>0.51</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(0.42,0.592)</t>
+        </is>
+      </c>
+      <c r="I94">
+        <v>0.53</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>(0.444,0.614)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>254</v>
+      </c>
+      <c r="E95">
+        <v>0.9</v>
+      </c>
+      <c r="F95">
+        <v>0.7</v>
+      </c>
+      <c r="G95">
+        <v>0.62</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(0.543,0.704)</t>
+        </is>
+      </c>
+      <c r="I95">
+        <v>0.65</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>(0.573,0.727)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>254</v>
+      </c>
+      <c r="E96">
+        <v>0.83</v>
+      </c>
+      <c r="F96">
+        <v>0.57</v>
+      </c>
+      <c r="G96">
+        <v>0.47</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(0.393,0.538)</t>
+        </is>
+      </c>
+      <c r="I96">
+        <v>0.52</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>(0.447,0.591)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>400</v>
+      </c>
+      <c r="E97">
+        <v>0.88</v>
+      </c>
+      <c r="F97">
+        <v>0.55</v>
+      </c>
+      <c r="G97">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>(0.621,0.755)</t>
+        </is>
+      </c>
+      <c r="I97">
+        <v>0.7</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>(0.63,0.762)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>383</v>
+      </c>
+      <c r="E98">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.29</v>
+      </c>
+      <c r="G98">
+        <v>0.27</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(0.216,0.321)</t>
+        </is>
+      </c>
+      <c r="I98">
+        <v>0.34</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>(0.284,0.398)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>385</v>
+      </c>
+      <c r="E99">
+        <v>0.8</v>
+      </c>
+      <c r="F99">
+        <v>0.44</v>
+      </c>
+      <c r="G99">
+        <v>0.54</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>(0.46,0.612)</t>
+        </is>
+      </c>
+      <c r="I99">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>(0.483,0.632)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>385</v>
+      </c>
+      <c r="E100">
+        <v>0.86</v>
+      </c>
+      <c r="F100">
+        <v>0.52</v>
+      </c>
+      <c r="G100">
+        <v>0.6</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>(0.531,0.672)</t>
+        </is>
+      </c>
+      <c r="I100">
+        <v>0.64</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>(0.575,0.709)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>385</v>
+      </c>
+      <c r="E101">
+        <v>0.77</v>
+      </c>
+      <c r="F101">
+        <v>0.41</v>
+      </c>
+      <c r="G101">
+        <v>0.41</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(0.348,0.479)</t>
+        </is>
+      </c>
+      <c r="I101">
+        <v>0.48</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>(0.414,0.544)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>398</v>
+      </c>
+      <c r="E102">
+        <v>0.64</v>
+      </c>
+      <c r="F102">
+        <v>0.32</v>
+      </c>
+      <c r="G102">
+        <v>0.27</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>(0.225,0.325)</t>
+        </is>
+      </c>
+      <c r="I102">
+        <v>0.34</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>(0.283,0.388)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>400</v>
+      </c>
+      <c r="E103">
+        <v>0.73</v>
+      </c>
+      <c r="F103">
+        <v>0.41</v>
+      </c>
+      <c r="G103">
+        <v>0.46</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>(0.397,0.529)</t>
+        </is>
+      </c>
+      <c r="I103">
+        <v>0.49</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>(0.426,0.556)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>400</v>
+      </c>
+      <c r="E104">
+        <v>0.78</v>
+      </c>
+      <c r="F104">
+        <v>0.46</v>
+      </c>
+      <c r="G104">
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>(0.432,0.57)</t>
+        </is>
+      </c>
+      <c r="I104">
+        <v>0.54</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>(0.472,0.606)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>400</v>
+      </c>
+      <c r="E105">
+        <v>0.71</v>
+      </c>
+      <c r="F105">
+        <v>0.43</v>
+      </c>
+      <c r="G105">
+        <v>0.38</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(0.316,0.437)</t>
+        </is>
+      </c>
+      <c r="I105">
+        <v>0.44</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>(0.375,0.495)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>997</v>
+      </c>
+      <c r="E106">
+        <v>0.67</v>
+      </c>
+      <c r="F106">
+        <v>0.38</v>
+      </c>
+      <c r="G106">
+        <v>0.39</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>(0.347,0.427)</t>
+        </is>
+      </c>
+      <c r="I106">
+        <v>0.39</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>(0.347,0.427)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>980</v>
+      </c>
+      <c r="E107">
+        <v>0.68</v>
+      </c>
+      <c r="F107">
+        <v>0.41</v>
+      </c>
+      <c r="G107">
+        <v>0.4</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(0.363,0.443)</t>
+        </is>
+      </c>
+      <c r="I107">
+        <v>0.4</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>(0.363,0.443)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>999</v>
+      </c>
+      <c r="E108">
         <v>0.82</v>
       </c>
-      <c r="E85">
+      <c r="F108">
+        <v>0.65</v>
+      </c>
+      <c r="G108">
+        <v>0.58</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(0.543,0.619)</t>
+        </is>
+      </c>
+      <c r="I108">
+        <v>0.59</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>(0.552,0.627)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>925</v>
+      </c>
+      <c r="E109">
+        <v>0.62</v>
+      </c>
+      <c r="F109">
+        <v>0.34</v>
+      </c>
+      <c r="G109">
+        <v>0.27</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(0.241,0.309)</t>
+        </is>
+      </c>
+      <c r="I109">
+        <v>0.32</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>(0.282,0.352)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>927</v>
+      </c>
+      <c r="E110">
+        <v>0.7</v>
+      </c>
+      <c r="F110">
+        <v>0.4</v>
+      </c>
+      <c r="G110">
+        <v>0.42</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(0.382,0.467)</t>
+        </is>
+      </c>
+      <c r="I110">
+        <v>0.44</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>(0.394,0.479)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>927</v>
+      </c>
+      <c r="E111">
+        <v>0.75</v>
+      </c>
+      <c r="F111">
+        <v>0.44</v>
+      </c>
+      <c r="G111">
+        <v>0.45</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>(0.405,0.487)</t>
+        </is>
+      </c>
+      <c r="I111">
+        <v>0.47</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>(0.429,0.511)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>927</v>
+      </c>
+      <c r="E112">
+        <v>0.68</v>
+      </c>
+      <c r="F112">
+        <v>0.42</v>
+      </c>
+      <c r="G112">
+        <v>0.35</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>(0.309,0.382)</t>
+        </is>
+      </c>
+      <c r="I112">
+        <v>0.39</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>(0.35,0.424)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>980</v>
+      </c>
+      <c r="E113">
+        <v>0.68</v>
+      </c>
+      <c r="F113">
+        <v>0.39</v>
+      </c>
+      <c r="G113">
+        <v>0.4</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>(0.357,0.436)</t>
+        </is>
+      </c>
+      <c r="I113">
+        <v>0.4</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>(0.357,0.436)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>998</v>
+      </c>
+      <c r="E114">
+        <v>0.82</v>
+      </c>
+      <c r="F114">
+        <v>0.63</v>
+      </c>
+      <c r="G114">
+        <v>0.57</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>(0.534,0.611)</t>
+        </is>
+      </c>
+      <c r="I114">
+        <v>0.58</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>(0.545,0.621)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>917</v>
+      </c>
+      <c r="E115">
+        <v>0.62</v>
+      </c>
+      <c r="F115">
+        <v>0.34</v>
+      </c>
+      <c r="G115">
+        <v>0.27</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>(0.236,0.304)</t>
+        </is>
+      </c>
+      <c r="I115">
+        <v>0.31</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>(0.274,0.344)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>919</v>
+      </c>
+      <c r="E116">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F116">
+        <v>0.37</v>
+      </c>
+      <c r="G116">
+        <v>0.41</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>(0.364,0.447)</t>
+        </is>
+      </c>
+      <c r="I116">
+        <v>0.42</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>(0.377,0.46)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>919</v>
+      </c>
+      <c r="E117">
+        <v>0.74</v>
+      </c>
+      <c r="F117">
+        <v>0.43</v>
+      </c>
+      <c r="G117">
+        <v>0.44</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>(0.394,0.478)</t>
+        </is>
+      </c>
+      <c r="I117">
+        <v>0.46</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>(0.418,0.501)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>919</v>
+      </c>
+      <c r="E118">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F118">
+        <v>0.42</v>
+      </c>
+      <c r="G118">
+        <v>0.36</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>(0.32,0.395)</t>
+        </is>
+      </c>
+      <c r="I118">
+        <v>0.4</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>(0.361,0.436)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>981</v>
+      </c>
+      <c r="E119">
+        <v>0.83</v>
+      </c>
+      <c r="F119">
+        <v>0.63</v>
+      </c>
+      <c r="G119">
+        <v>0.58</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>(0.547,0.623)</t>
+        </is>
+      </c>
+      <c r="I119">
+        <v>0.59</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>(0.554,0.629)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>869</v>
+      </c>
+      <c r="E120">
+        <v>0.62</v>
+      </c>
+      <c r="F120">
+        <v>0.34</v>
+      </c>
+      <c r="G120">
+        <v>0.28</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>(0.241,0.312)</t>
+        </is>
+      </c>
+      <c r="I120">
+        <v>0.32</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>(0.279,0.352)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>871</v>
+      </c>
+      <c r="E121">
+        <v>0.68</v>
+      </c>
+      <c r="F121">
+        <v>0.37</v>
+      </c>
+      <c r="G121">
+        <v>0.4</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>(0.357,0.443)</t>
+        </is>
+      </c>
+      <c r="I121">
+        <v>0.41</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>(0.367,0.453)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>871</v>
+      </c>
+      <c r="E122">
+        <v>0.72</v>
+      </c>
+      <c r="F122">
+        <v>0.41</v>
+      </c>
+      <c r="G122">
+        <v>0.4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>(0.358,0.444)</t>
+        </is>
+      </c>
+      <c r="I122">
+        <v>0.42</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>(0.38,0.466)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>871</v>
+      </c>
+      <c r="E123">
         <v>0.67</v>
       </c>
-      <c r="F85">
+      <c r="F123">
+        <v>0.4</v>
+      </c>
+      <c r="G123">
+        <v>0.33</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>(0.293,0.371)</t>
+        </is>
+      </c>
+      <c r="I123">
+        <v>0.37</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>(0.331,0.409)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>998</v>
+      </c>
+      <c r="E124">
+        <v>0.66</v>
+      </c>
+      <c r="F124">
+        <v>0.37</v>
+      </c>
+      <c r="G124">
+        <v>0.31</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>(0.277,0.344)</t>
+        </is>
+      </c>
+      <c r="I124">
+        <v>0.38</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>(0.341,0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>1000</v>
+      </c>
+      <c r="E125">
+        <v>0.75</v>
+      </c>
+      <c r="F125">
+        <v>0.43</v>
+      </c>
+      <c r="G125">
+        <v>0.49</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>(0.451,0.533)</t>
+        </is>
+      </c>
+      <c r="I125">
+        <v>0.53</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>(0.486,0.566)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>1000</v>
+      </c>
+      <c r="E126">
+        <v>0.8</v>
+      </c>
+      <c r="F126">
+        <v>0.48</v>
+      </c>
+      <c r="G126">
+        <v>0.53</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>(0.489,0.571)</t>
+        </is>
+      </c>
+      <c r="I126">
+        <v>0.58</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>(0.538,0.616)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>1000</v>
+      </c>
+      <c r="E127">
+        <v>0.74</v>
+      </c>
+      <c r="F127">
+        <v>0.48</v>
+      </c>
+      <c r="G127">
+        <v>0.43</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>(0.388,0.463)</t>
+        </is>
+      </c>
+      <c r="I127">
+        <v>0.49</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>(0.455,0.528)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>998</v>
+      </c>
+      <c r="E128">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F128">
+        <v>0.48</v>
+      </c>
+      <c r="G128">
+        <v>0.39</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>(0.348,0.425)</t>
+        </is>
+      </c>
+      <c r="I128">
+        <v>0.46</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>(0.418,0.493)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>998</v>
+      </c>
+      <c r="E129">
+        <v>0.72</v>
+      </c>
+      <c r="F129">
+        <v>0.52</v>
+      </c>
+      <c r="G129">
+        <v>0.4</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>(0.363,0.443)</t>
+        </is>
+      </c>
+      <c r="I129">
+        <v>0.47</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>(0.43,0.509)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>998</v>
+      </c>
+      <c r="E130">
+        <v>0.73</v>
+      </c>
+      <c r="F130">
+        <v>0.57</v>
+      </c>
+      <c r="G130">
+        <v>0.46</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>(0.424,0.503)</t>
+        </is>
+      </c>
+      <c r="I130">
+        <v>0.51</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>(0.476,0.553)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>1000</v>
+      </c>
+      <c r="E131">
+        <v>0.78</v>
+      </c>
+      <c r="F131">
+        <v>0.57</v>
+      </c>
+      <c r="G131">
+        <v>0.54</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>(0.497,0.584)</t>
+        </is>
+      </c>
+      <c r="I131">
+        <v>0.58</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>(0.538,0.621)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>1000</v>
+      </c>
+      <c r="E132">
+        <v>0.77</v>
+      </c>
+      <c r="F132">
+        <v>0.6</v>
+      </c>
+      <c r="G132">
+        <v>0.52</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>(0.479,0.558)</t>
+        </is>
+      </c>
+      <c r="I132">
+        <v>0.58</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>(0.547,0.621)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>prem_offer</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>1000</v>
+      </c>
+      <c r="E133">
+        <v>0.82</v>
+      </c>
+      <c r="F133">
+        <v>0.7</v>
+      </c>
+      <c r="G133">
+        <v>0.59</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>(0.548,0.629)</t>
+        </is>
+      </c>
+      <c r="I133">
+        <v>0.64</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>(0.606,0.682)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>400</v>
+      </c>
+      <c r="E134">
+        <v>0.48</v>
+      </c>
+      <c r="F134">
+        <v>0.35</v>
+      </c>
+      <c r="G134">
+        <v>0.34</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>(0.282,0.395)</t>
+        </is>
+      </c>
+      <c r="I134">
+        <v>0.34</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>(0.282,0.395)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>400</v>
+      </c>
+      <c r="E135">
+        <v>0.48</v>
+      </c>
+      <c r="F135">
+        <v>0.42</v>
+      </c>
+      <c r="G135">
+        <v>0.34</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>(0.293,0.394)</t>
+        </is>
+      </c>
+      <c r="I135">
+        <v>0.34</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>(0.293,0.394)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>400</v>
+      </c>
+      <c r="E136">
+        <v>0.53</v>
+      </c>
+      <c r="F136">
+        <v>0.38</v>
+      </c>
+      <c r="G136">
+        <v>0.42</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>(0.361,0.471)</t>
+        </is>
+      </c>
+      <c r="I136">
+        <v>0.42</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>(0.361,0.471)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>400</v>
+      </c>
+      <c r="E137">
+        <v>0.54</v>
+      </c>
+      <c r="F137">
+        <v>0.44</v>
+      </c>
+      <c r="G137">
+        <v>0.4</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>(0.347,0.455)</t>
+        </is>
+      </c>
+      <c r="I137">
+        <v>0.41</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>(0.355,0.462)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>400</v>
+      </c>
+      <c r="E138">
+        <v>0.47</v>
+      </c>
+      <c r="F138">
+        <v>0.37</v>
+      </c>
+      <c r="G138">
+        <v>0.32</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>(0.266,0.376)</t>
+        </is>
+      </c>
+      <c r="I138">
+        <v>0.32</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>(0.266,0.376)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>400</v>
+      </c>
+      <c r="E139">
+        <v>0.52</v>
+      </c>
+      <c r="F139">
+        <v>0.43</v>
+      </c>
+      <c r="G139">
+        <v>0.37</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>(0.318,0.419)</t>
+        </is>
+      </c>
+      <c r="I139">
+        <v>0.37</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>(0.318,0.419)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>400</v>
+      </c>
+      <c r="E140">
+        <v>0.53</v>
+      </c>
+      <c r="F140">
+        <v>0.4</v>
+      </c>
+      <c r="G140">
+        <v>0.41</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>(0.355,0.466)</t>
+        </is>
+      </c>
+      <c r="I140">
+        <v>0.41</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>(0.355,0.466)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>400</v>
+      </c>
+      <c r="E141">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F141">
+        <v>0.45</v>
+      </c>
+      <c r="G141">
+        <v>0.4</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>(0.351,0.457)</t>
+        </is>
+      </c>
+      <c r="I141">
+        <v>0.41</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>(0.36,0.466)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>397</v>
+      </c>
+      <c r="E142">
+        <v>0.48</v>
+      </c>
+      <c r="F142">
+        <v>0.38</v>
+      </c>
+      <c r="G142">
+        <v>0.34</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>(0.281,0.397)</t>
+        </is>
+      </c>
+      <c r="I142">
+        <v>0.34</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>(0.281,0.397)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>397</v>
+      </c>
+      <c r="E143">
+        <v>0.49</v>
+      </c>
+      <c r="F143">
+        <v>0.42</v>
+      </c>
+      <c r="G143">
+        <v>0.34</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>(0.291,0.394)</t>
+        </is>
+      </c>
+      <c r="I143">
+        <v>0.34</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>(0.291,0.394)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>397</v>
+      </c>
+      <c r="E144">
+        <v>0.52</v>
+      </c>
+      <c r="F144">
+        <v>0.39</v>
+      </c>
+      <c r="G144">
+        <v>0.41</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>(0.35,0.463)</t>
+        </is>
+      </c>
+      <c r="I144">
+        <v>0.41</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>(0.35,0.463)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>397</v>
+      </c>
+      <c r="E145">
+        <v>0.53</v>
+      </c>
+      <c r="F145">
+        <v>0.43</v>
+      </c>
+      <c r="G145">
+        <v>0.4</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>(0.348,0.458)</t>
+        </is>
+      </c>
+      <c r="I145">
+        <v>0.41</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>(0.355,0.464)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="D146">
+        <v>400</v>
+      </c>
+      <c r="E146">
+        <v>0.52</v>
+      </c>
+      <c r="F146">
+        <v>0.43</v>
+      </c>
+      <c r="G146">
+        <v>0.37</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>(0.311,0.422)</t>
+        </is>
+      </c>
+      <c r="I146">
+        <v>0.38</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>(0.328,0.437)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="D147">
+        <v>400</v>
+      </c>
+      <c r="E147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F147">
+        <v>0.47</v>
+      </c>
+      <c r="G147">
+        <v>0.4</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>(0.347,0.447)</t>
+        </is>
+      </c>
+      <c r="I147">
+        <v>0.41</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>(0.36,0.459)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D148">
+        <v>400</v>
+      </c>
+      <c r="E148">
+        <v>0.59</v>
+      </c>
+      <c r="F148">
+        <v>0.45</v>
+      </c>
+      <c r="G148">
+        <v>0.47</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>(0.417,0.526)</t>
+        </is>
+      </c>
+      <c r="I148">
+        <v>0.49</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>(0.439,0.545)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D149">
+        <v>400</v>
+      </c>
+      <c r="E149">
+        <v>0.62</v>
+      </c>
+      <c r="F149">
+        <v>0.52</v>
+      </c>
+      <c r="G149">
+        <v>0.49</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>(0.439,0.545)</t>
+        </is>
+      </c>
+      <c r="I149">
+        <v>0.52</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>(0.474,0.575)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="D150">
+        <v>400</v>
+      </c>
+      <c r="E150">
+        <v>0.5</v>
+      </c>
+      <c r="F150">
+        <v>0.44</v>
+      </c>
+      <c r="G150">
+        <v>0.37</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>(0.313,0.421)</t>
+        </is>
+      </c>
+      <c r="I150">
+        <v>0.37</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>(0.313,0.421)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D151">
+        <v>400</v>
+      </c>
+      <c r="E151">
         <v>0.63</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>(0.587,0.667)</t>
-        </is>
-      </c>
-      <c r="H85">
+      <c r="F151">
+        <v>0.47</v>
+      </c>
+      <c r="G151">
+        <v>0.53</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>(0.476,0.589)</t>
+        </is>
+      </c>
+      <c r="I151">
+        <v>0.53</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>(0.476,0.589)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D152">
+        <v>400</v>
+      </c>
+      <c r="E152">
+        <v>0.76</v>
+      </c>
+      <c r="F152">
+        <v>0.7</v>
+      </c>
+      <c r="G152">
+        <v>0.63</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>(0.574,0.678)</t>
+        </is>
+      </c>
+      <c r="I152">
+        <v>0.63</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>(0.579,0.682)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D153">
+        <v>400</v>
+      </c>
+      <c r="E153">
+        <v>0.36</v>
+      </c>
+      <c r="F153">
+        <v>0.33</v>
+      </c>
+      <c r="G153">
+        <v>0.17</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>(0.126,0.217)</t>
+        </is>
+      </c>
+      <c r="I153">
+        <v>0.22</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>(0.171,0.264)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D154">
+        <v>400</v>
+      </c>
+      <c r="E154">
+        <v>0.42</v>
+      </c>
+      <c r="F154">
+        <v>0.38</v>
+      </c>
+      <c r="G154">
+        <v>0.22</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>(0.173,0.271)</t>
+        </is>
+      </c>
+      <c r="I154">
+        <v>0.27</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>(0.22,0.318)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D155">
+        <v>400</v>
+      </c>
+      <c r="E155">
+        <v>0.44</v>
+      </c>
+      <c r="F155">
+        <v>0.4</v>
+      </c>
+      <c r="G155">
+        <v>0.23</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>(0.184,0.28)</t>
+        </is>
+      </c>
+      <c r="I155">
+        <v>0.29</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>(0.243,0.338)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Dietician 1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D156">
+        <v>400</v>
+      </c>
+      <c r="E156">
+        <v>0.42</v>
+      </c>
+      <c r="F156">
+        <v>0.39</v>
+      </c>
+      <c r="G156">
+        <v>0.23</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>(0.18,0.278)</t>
+        </is>
+      </c>
+      <c r="I156">
+        <v>0.28</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>(0.23,0.328)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="D157">
+        <v>400</v>
+      </c>
+      <c r="E157">
+        <v>0.58</v>
+      </c>
+      <c r="F157">
+        <v>0.44</v>
+      </c>
+      <c r="G157">
+        <v>0.48</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>(0.427,0.532)</t>
+        </is>
+      </c>
+      <c r="I157">
+        <v>0.48</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>(0.427,0.532)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D158">
+        <v>400</v>
+      </c>
+      <c r="E158">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F158">
+        <v>0.6</v>
+      </c>
+      <c r="G158">
+        <v>0.53</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>(0.48,0.582)</t>
+        </is>
+      </c>
+      <c r="I158">
+        <v>0.54</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>(0.486,0.587)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D159">
+        <v>400</v>
+      </c>
+      <c r="E159">
+        <v>0.47</v>
+      </c>
+      <c r="F159">
+        <v>0.48</v>
+      </c>
+      <c r="G159">
+        <v>0.25</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>(0.206,0.293)</t>
+        </is>
+      </c>
+      <c r="I159">
+        <v>0.3</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>(0.258,0.343)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D160">
+        <v>400</v>
+      </c>
+      <c r="E160">
+        <v>0.51</v>
+      </c>
+      <c r="F160">
+        <v>0.48</v>
+      </c>
+      <c r="G160">
+        <v>0.3</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>(0.254,0.347)</t>
+        </is>
+      </c>
+      <c r="I160">
+        <v>0.35</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>(0.302,0.392)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D161">
+        <v>400</v>
+      </c>
+      <c r="E161">
+        <v>0.63</v>
+      </c>
+      <c r="F161">
+        <v>0.59</v>
+      </c>
+      <c r="G161">
+        <v>0.36</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>(0.317,0.412)</t>
+        </is>
+      </c>
+      <c r="I161">
+        <v>0.42</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>(0.373,0.464)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Dietician 2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D162">
+        <v>400</v>
+      </c>
+      <c r="E162">
+        <v>0.54</v>
+      </c>
+      <c r="F162">
+        <v>0.5</v>
+      </c>
+      <c r="G162">
+        <v>0.33</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>(0.281,0.375)</t>
+        </is>
+      </c>
+      <c r="I162">
+        <v>0.37</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>(0.329,0.42)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="D163">
+        <v>400</v>
+      </c>
+      <c r="E163">
+        <v>0.85</v>
+      </c>
+      <c r="F163">
+        <v>0.73</v>
+      </c>
+      <c r="G163">
+        <v>0.78</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>(0.732,0.819)</t>
+        </is>
+      </c>
+      <c r="I163">
+        <v>0.8</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>(0.756,0.836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D164">
+        <v>400</v>
+      </c>
+      <c r="E164">
+        <v>0.4</v>
+      </c>
+      <c r="F164">
+        <v>0.36</v>
+      </c>
+      <c r="G164">
+        <v>0.22</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>(0.172,0.264)</t>
+        </is>
+      </c>
+      <c r="I164">
+        <v>0.29</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>(0.243,0.334)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D165">
+        <v>400</v>
+      </c>
+      <c r="E165">
+        <v>0.42</v>
+      </c>
+      <c r="F165">
+        <v>0.36</v>
+      </c>
+      <c r="G165">
+        <v>0.25</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>(0.198,0.294)</t>
+        </is>
+      </c>
+      <c r="I165">
+        <v>0.31</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>(0.26,0.355)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D166">
+        <v>400</v>
+      </c>
+      <c r="E166">
+        <v>0.49</v>
+      </c>
+      <c r="F166">
+        <v>0.38</v>
+      </c>
+      <c r="G166">
+        <v>0.31</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>(0.263,0.362)</t>
+        </is>
+      </c>
+      <c r="I166">
+        <v>0.38</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>(0.337,0.431)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Dietician 3</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D167">
+        <v>400</v>
+      </c>
+      <c r="E167">
+        <v>0.46</v>
+      </c>
+      <c r="F167">
+        <v>0.4</v>
+      </c>
+      <c r="G167">
+        <v>0.3</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>(0.247,0.346)</t>
+        </is>
+      </c>
+      <c r="I167">
+        <v>0.36</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>(0.31,0.406)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D168">
+        <v>400</v>
+      </c>
+      <c r="E168">
+        <v>0.43</v>
+      </c>
+      <c r="F168">
+        <v>0.41</v>
+      </c>
+      <c r="G168">
+        <v>0.24</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>(0.196,0.288)</t>
+        </is>
+      </c>
+      <c r="I168">
+        <v>0.33</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>(0.281,0.37)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D169">
+        <v>400</v>
+      </c>
+      <c r="E169">
+        <v>0.48</v>
+      </c>
+      <c r="F169">
+        <v>0.44</v>
+      </c>
+      <c r="G169">
+        <v>0.29</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>(0.242,0.339)</t>
+        </is>
+      </c>
+      <c r="I169">
+        <v>0.37</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>(0.323,0.417)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D170">
+        <v>400</v>
+      </c>
+      <c r="E170">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F170">
+        <v>0.49</v>
+      </c>
+      <c r="G170">
+        <v>0.35</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>(0.302,0.401)</t>
+        </is>
+      </c>
+      <c r="I170">
+        <v>0.45</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>(0.407,0.498)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Consensus (D)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>400</v>
+      </c>
+      <c r="E171">
+        <v>0.51</v>
+      </c>
+      <c r="F171">
+        <v>0.46</v>
+      </c>
+      <c r="G171">
+        <v>0.32</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>(0.272,0.37)</t>
+        </is>
+      </c>
+      <c r="I171">
+        <v>0.4</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>(0.357,0.451)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="D172">
+        <v>999</v>
+      </c>
+      <c r="E172">
+        <v>0.51</v>
+      </c>
+      <c r="F172">
+        <v>0.43</v>
+      </c>
+      <c r="G172">
+        <v>0.37</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>(0.337,0.405)</t>
+        </is>
+      </c>
+      <c r="I172">
+        <v>0.37</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>(0.337,0.405)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="D173">
+        <v>984</v>
+      </c>
+      <c r="E173">
+        <v>0.49</v>
+      </c>
+      <c r="F173">
+        <v>0.41</v>
+      </c>
+      <c r="G173">
+        <v>0.35</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>(0.316,0.384)</t>
+        </is>
+      </c>
+      <c r="I173">
+        <v>0.35</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>(0.316,0.384)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="D174">
+        <v>1000</v>
+      </c>
+      <c r="E174">
+        <v>0.73</v>
+      </c>
+      <c r="F174">
         <v>0.66</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>(0.623,0.699)</t>
+      <c r="G174">
+        <v>0.55</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>(0.514,0.578)</t>
+        </is>
+      </c>
+      <c r="I174">
+        <v>0.55</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>(0.523,0.587)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>1000</v>
+      </c>
+      <c r="E175">
+        <v>0.43</v>
+      </c>
+      <c r="F175">
+        <v>0.34</v>
+      </c>
+      <c r="G175">
+        <v>0.22</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>(0.189,0.244)</t>
+        </is>
+      </c>
+      <c r="I175">
+        <v>0.27</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>(0.24,0.296)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>1000</v>
+      </c>
+      <c r="E176">
+        <v>0.47</v>
+      </c>
+      <c r="F176">
+        <v>0.4</v>
+      </c>
+      <c r="G176">
+        <v>0.27</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>(0.242,0.302)</t>
+        </is>
+      </c>
+      <c r="I176">
+        <v>0.32</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>(0.289,0.348)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>1000</v>
+      </c>
+      <c r="E177">
+        <v>0.51</v>
+      </c>
+      <c r="F177">
+        <v>0.44</v>
+      </c>
+      <c r="G177">
+        <v>0.3</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>(0.269,0.33)</t>
+        </is>
+      </c>
+      <c r="I177">
+        <v>0.35</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>(0.317,0.376)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Coder 1</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>1000</v>
+      </c>
+      <c r="E178">
+        <v>0.48</v>
+      </c>
+      <c r="F178">
+        <v>0.39</v>
+      </c>
+      <c r="G178">
+        <v>0.3</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>(0.266,0.327)</t>
+        </is>
+      </c>
+      <c r="I178">
+        <v>0.34</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>(0.308,0.368)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="D179">
+        <v>984</v>
+      </c>
+      <c r="E179">
+        <v>0.49</v>
+      </c>
+      <c r="F179">
+        <v>0.42</v>
+      </c>
+      <c r="G179">
+        <v>0.35</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>(0.313,0.382)</t>
+        </is>
+      </c>
+      <c r="I179">
+        <v>0.35</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>(0.313,0.382)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="D180">
+        <v>999</v>
+      </c>
+      <c r="E180">
+        <v>0.72</v>
+      </c>
+      <c r="F180">
+        <v>0.67</v>
+      </c>
+      <c r="G180">
+        <v>0.54</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>(0.508,0.573)</t>
+        </is>
+      </c>
+      <c r="I180">
+        <v>0.55</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>(0.516,0.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>999</v>
+      </c>
+      <c r="E181">
+        <v>0.43</v>
+      </c>
+      <c r="F181">
+        <v>0.35</v>
+      </c>
+      <c r="G181">
+        <v>0.22</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>(0.188,0.244)</t>
+        </is>
+      </c>
+      <c r="I181">
+        <v>0.27</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>(0.24,0.296)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D182">
+        <v>999</v>
+      </c>
+      <c r="E182">
+        <v>0.47</v>
+      </c>
+      <c r="F182">
+        <v>0.39</v>
+      </c>
+      <c r="G182">
+        <v>0.26</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>(0.232,0.291)</t>
+        </is>
+      </c>
+      <c r="I182">
+        <v>0.31</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>(0.279,0.338)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D183">
+        <v>999</v>
+      </c>
+      <c r="E183">
+        <v>0.52</v>
+      </c>
+      <c r="F183">
+        <v>0.44</v>
+      </c>
+      <c r="G183">
+        <v>0.3</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>(0.265,0.325)</t>
+        </is>
+      </c>
+      <c r="I183">
+        <v>0.34</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>(0.315,0.374)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Coder 2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D184">
+        <v>999</v>
+      </c>
+      <c r="E184">
+        <v>0.49</v>
+      </c>
+      <c r="F184">
+        <v>0.41</v>
+      </c>
+      <c r="G184">
+        <v>0.3</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>(0.265,0.326)</t>
+        </is>
+      </c>
+      <c r="I184">
+        <v>0.34</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>(0.307,0.367)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="D185">
+        <v>984</v>
+      </c>
+      <c r="E185">
+        <v>0.7</v>
+      </c>
+      <c r="F185">
+        <v>0.67</v>
+      </c>
+      <c r="G185">
+        <v>0.52</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>(0.49,0.556)</t>
+        </is>
+      </c>
+      <c r="I185">
+        <v>0.53</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>(0.496,0.561)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D186">
+        <v>984</v>
+      </c>
+      <c r="E186">
+        <v>0.41</v>
+      </c>
+      <c r="F186">
+        <v>0.34</v>
+      </c>
+      <c r="G186">
+        <v>0.21</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>(0.178,0.234)</t>
+        </is>
+      </c>
+      <c r="I186">
+        <v>0.26</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>(0.23,0.287)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D187">
+        <v>984</v>
+      </c>
+      <c r="E187">
+        <v>0.45</v>
+      </c>
+      <c r="F187">
+        <v>0.4</v>
+      </c>
+      <c r="G187">
+        <v>0.24</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>(0.21,0.269)</t>
+        </is>
+      </c>
+      <c r="I187">
+        <v>0.28</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>(0.255,0.314)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D188">
+        <v>984</v>
+      </c>
+      <c r="E188">
+        <v>0.48</v>
+      </c>
+      <c r="F188">
+        <v>0.43</v>
+      </c>
+      <c r="G188">
+        <v>0.27</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>(0.24,0.3)</t>
+        </is>
+      </c>
+      <c r="I188">
+        <v>0.31</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>(0.28,0.34)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Coder 3</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D189">
+        <v>984</v>
+      </c>
+      <c r="E189">
+        <v>0.46</v>
+      </c>
+      <c r="F189">
+        <v>0.4</v>
+      </c>
+      <c r="G189">
+        <v>0.27</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>(0.245,0.305)</t>
+        </is>
+      </c>
+      <c r="I189">
+        <v>0.32</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>(0.285,0.346)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="D190">
+        <v>1000</v>
+      </c>
+      <c r="E190">
+        <v>0.48</v>
+      </c>
+      <c r="F190">
+        <v>0.4</v>
+      </c>
+      <c r="G190">
+        <v>0.27</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>(0.238,0.296)</t>
+        </is>
+      </c>
+      <c r="I190">
+        <v>0.35</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>(0.326,0.381)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D191">
+        <v>1000</v>
+      </c>
+      <c r="E191">
+        <v>0.52</v>
+      </c>
+      <c r="F191">
+        <v>0.46</v>
+      </c>
+      <c r="G191">
+        <v>0.32</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>(0.29,0.351)</t>
+        </is>
+      </c>
+      <c r="I191">
+        <v>0.4</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>(0.372,0.43)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D192">
+        <v>1000</v>
+      </c>
+      <c r="E192">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F192">
+        <v>0.49</v>
+      </c>
+      <c r="G192">
+        <v>0.36</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>(0.326,0.388)</t>
+        </is>
+      </c>
+      <c r="I192">
+        <v>0.44</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>(0.416,0.474)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Consensus</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D193">
+        <v>1000</v>
+      </c>
+      <c r="E193">
+        <v>0.54</v>
+      </c>
+      <c r="F193">
+        <v>0.46</v>
+      </c>
+      <c r="G193">
+        <v>0.35</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>(0.317,0.379)</t>
+        </is>
+      </c>
+      <c r="I193">
+        <v>0.42</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>(0.395,0.454)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="D194">
+        <v>1000</v>
+      </c>
+      <c r="E194">
+        <v>0.61</v>
+      </c>
+      <c r="F194">
+        <v>0.49</v>
+      </c>
+      <c r="G194">
+        <v>0.41</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>(0.382,0.445)</t>
+        </is>
+      </c>
+      <c r="I194">
+        <v>0.5</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>(0.473,0.53)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D195">
+        <v>1000</v>
+      </c>
+      <c r="E195">
+        <v>0.58</v>
+      </c>
+      <c r="F195">
+        <v>0.47</v>
+      </c>
+      <c r="G195">
+        <v>0.38</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>(0.353,0.414)</t>
+        </is>
+      </c>
+      <c r="I195">
+        <v>0.48</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>(0.45,0.505)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Gemma</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D196">
+        <v>1000</v>
+      </c>
+      <c r="E196">
+        <v>0.59</v>
+      </c>
+      <c r="F196">
+        <v>0.48</v>
+      </c>
+      <c r="G196">
+        <v>0.41</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>(0.374,0.437)</t>
+        </is>
+      </c>
+      <c r="I196">
+        <v>0.49</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>(0.46,0.517)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="D197">
+        <v>1000</v>
+      </c>
+      <c r="E197">
+        <v>0.64</v>
+      </c>
+      <c r="F197">
+        <v>0.53</v>
+      </c>
+      <c r="G197">
+        <v>0.47</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>(0.443,0.507)</t>
+        </is>
+      </c>
+      <c r="I197">
+        <v>0.55</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>(0.523,0.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Pixtral</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D198">
+        <v>1000</v>
+      </c>
+      <c r="E198">
+        <v>0.65</v>
+      </c>
+      <c r="F198">
+        <v>0.54</v>
+      </c>
+      <c r="G198">
+        <v>0.48</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>(0.451,0.515)</t>
+        </is>
+      </c>
+      <c r="I198">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>(0.527,0.584)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>who_cat_clean</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Qwen</t>
+        </is>
+      </c>
+      <c r="D199">
+        <v>1000</v>
+      </c>
+      <c r="E199">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F199">
+        <v>0.57</v>
+      </c>
+      <c r="G199">
+        <v>0.52</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>(0.492,0.555)</t>
+        </is>
+      </c>
+      <c r="I199">
+        <v>0.6</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>(0.577,0.633)</t>
         </is>
       </c>
     </row>
